--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/73.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/73.xlsx
@@ -479,13 +479,13 @@
         <v>-6.870287536062904</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.876492394409475</v>
+        <v>-8.664541103704771</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.019964933431519</v>
+        <v>-3.055497443343964</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.507999980867457</v>
+        <v>-5.451100832717316</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-6.37578296576395</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.137055405565507</v>
+        <v>-8.911265550757099</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.100430226696767</v>
+        <v>-3.147758901469607</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.453287247291884</v>
+        <v>-5.381672350747642</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-6.000455763582472</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.945256352288098</v>
+        <v>-9.728657294074582</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.985754746106089</v>
+        <v>-3.033908235957957</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.3153598368543</v>
+        <v>-5.254899582331209</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-5.794315260285393</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.70265916398479</v>
+        <v>-10.49650776343897</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.889251381859726</v>
+        <v>-2.935532672405228</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.536515016456737</v>
+        <v>-5.464376427798826</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-5.731411842432685</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.4789541686821</v>
+        <v>-11.2743476598716</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.744830189212646</v>
+        <v>-2.783976174709407</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.091324350626683</v>
+        <v>-5.018177654649961</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-5.798224574907575</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.13133052698247</v>
+        <v>-11.93323089268431</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.714652431162467</v>
+        <v>-2.753575847510919</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.215347735446355</v>
+        <v>-5.154507804140854</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-5.964912952471071</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.63551510941734</v>
+        <v>-12.4319298002285</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.589398369875674</v>
+        <v>-2.631948354111283</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.773168299269899</v>
+        <v>-4.714030367333822</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-6.200471685069542</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.59651632260571</v>
+        <v>-13.40559127026482</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.347478797966259</v>
+        <v>-2.381558062263272</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.675172412499579</v>
+        <v>-4.629192244919437</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-6.467367642976024</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.33587794098651</v>
+        <v>-14.15177397842616</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.333417664714246</v>
+        <v>-2.359667731911907</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.272073500305675</v>
+        <v>-4.254988045097223</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-6.734876708334209</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.03572698939098</v>
+        <v>-14.8497639198271</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.152311839504649</v>
+        <v>-2.180578121339936</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.063905885122231</v>
+        <v>-4.041099093571944</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-6.96973504963248</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.69508154510599</v>
+        <v>-15.51439467358732</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.150334901775548</v>
+        <v>-2.167053772504433</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.550373398458367</v>
+        <v>-3.525615853784663</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-7.147042204040688</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.66142441785379</v>
+        <v>-16.48446885264502</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.978720996126203</v>
+        <v>-2.001619433796382</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.914061295744797</v>
+        <v>-2.885205860281633</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-7.254168929476497</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.28464421772563</v>
+        <v>-17.12436824633722</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.710132403328193</v>
+        <v>-1.721601260617545</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.523753563427259</v>
+        <v>-2.516814642921144</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-7.282370462299766</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.18510662257387</v>
+        <v>-18.02946532639143</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.541660650360862</v>
+        <v>-1.551558431309207</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.933015766905738</v>
+        <v>-1.920420971571997</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-7.233207668096385</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.09470745480563</v>
+        <v>-18.94603126373499</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.390182706482091</v>
+        <v>-1.386844169257451</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.543977987963847</v>
+        <v>-1.564807841785034</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-7.119450588708217</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.87486468884124</v>
+        <v>-19.73418789480689</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.162455190853108</v>
+        <v>-1.143968859240591</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.011055800791388</v>
+        <v>-1.03655960672707</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-6.954319850590119</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.85872506279127</v>
+        <v>-20.72175339046114</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.065820903578328</v>
+        <v>-1.045698034110595</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.6459638437470145</v>
+        <v>-0.6727245107555027</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-6.755872871831932</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.69612184485091</v>
+        <v>-21.56090454110157</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9215437262625066</v>
+        <v>-0.8956340589387307</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.2657502769204478</v>
+        <v>-0.3033120937733599</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-6.546753767423636</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.35529310832614</v>
+        <v>-22.21257391504848</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6854633214205021</v>
+        <v>-0.6429526140934175</v>
       </c>
       <c r="G20" t="n">
-        <v>0.08546383911169569</v>
+        <v>0.06960906037036542</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-6.342972549829959</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.97190129526291</v>
+        <v>-22.84066405157745</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3912269073555504</v>
+        <v>-0.3431126944122072</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4149840093350991</v>
+        <v>0.3881709731152441</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-6.159109217397392</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.60203383103519</v>
+        <v>-23.47124172564634</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.1336227566417483</v>
+        <v>-0.07358145580959258</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3823841752592012</v>
+        <v>0.3514994328555694</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-6.010063252430162</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.10844410495315</v>
+        <v>-23.98240450549585</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.01605387712304824</v>
+        <v>0.04458966963982691</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6690401459787935</v>
+        <v>0.6162257963152705</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-5.899577585456175</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.48572499594317</v>
+        <v>-24.36395348721228</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.03417362425599712</v>
+        <v>0.02560583051932411</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5843984081070345</v>
+        <v>0.5434718694237988</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-5.828969584815803</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.74871008312492</v>
+        <v>-24.63540929433263</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2503744857060772</v>
+        <v>0.3107823710178013</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5737150889881859</v>
+        <v>0.532657627276533</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-5.800750886396805</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.75320074299963</v>
+        <v>-24.65081893477734</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2723302775716518</v>
+        <v>0.3262051037653546</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4276704507887317</v>
+        <v>0.375654731598554</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-5.808341234818364</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.71002232822762</v>
+        <v>-24.62409754467737</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09013779122619189</v>
+        <v>0.14481124789324</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4031616598690205</v>
+        <v>0.3524158940544903</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-5.845683828427796</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.80517718528129</v>
+        <v>-24.73237088917845</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2102073005876617</v>
+        <v>0.2607435895567243</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1194121803802914</v>
+        <v>0.06575992333489795</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-5.909016508218186</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.84547529342812</v>
+        <v>-24.77746078016535</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1821766802035261</v>
+        <v>0.2123020690423378</v>
       </c>
       <c r="G29" t="n">
-        <v>0.01209457398666281</v>
+        <v>-0.03080890242567352</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-5.987017833197448</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.6056243053677</v>
+        <v>-24.5468267733055</v>
       </c>
       <c r="F30" t="n">
-        <v>0.04013828667364005</v>
+        <v>0.08368328592522095</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.1938735343193717</v>
+        <v>-0.2299035517398018</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-6.069548288098352</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.14578335265775</v>
+        <v>-24.07634177838524</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0481507760127764</v>
+        <v>0.08408914731331446</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.6563067629919782</v>
+        <v>-0.6882519819257897</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-6.14849338862793</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.22512270787861</v>
+        <v>-24.16095733165131</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1152488280766225</v>
+        <v>0.1481890620264053</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.7278823826276946</v>
+        <v>-0.7456355452810751</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-6.209872543696094</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.7990206195918</v>
+        <v>-23.73581098147194</v>
       </c>
       <c r="F33" t="n">
-        <v>0.03093439777590662</v>
+        <v>0.06041826377547373</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.190237057483251</v>
+        <v>-1.207309420388861</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-6.241775683757147</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.23954724225632</v>
+        <v>-23.17648161946772</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.1136962717166413</v>
+        <v>-0.09448986344782911</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.2781387787626</v>
+        <v>-1.28329714608224</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-6.235937101089106</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.88482438906259</v>
+        <v>-22.83153871649677</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.3108794448158776</v>
+        <v>-0.2868419767984685</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.304598322805728</v>
+        <v>-1.306365783689361</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-6.182149854310321</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.15470593648805</v>
+        <v>-22.1042351090332</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.4326902304552969</v>
+        <v>-0.417058020862276</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.515057090986474</v>
+        <v>-1.509676154518525</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-6.074106680745363</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.36450690617283</v>
+        <v>-21.29591633158503</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.3627511486747962</v>
+        <v>-0.3520809218587895</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.618145883562226</v>
+        <v>-1.63312347801316</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-5.912187605007472</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.98484321606562</v>
+        <v>-20.92036362457012</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.4312631694455488</v>
+        <v>-0.4098703466021684</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.862971946702503</v>
+        <v>-1.881235709166711</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-5.698211961139799</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.32454601454601</v>
+        <v>-20.26506768273605</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.272335705249836</v>
+        <v>-0.2582614796949805</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.03019993089987</v>
+        <v>-2.037400697462819</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-5.436837578642366</v>
       </c>
       <c r="E40" t="n">
-        <v>-20.00068171915023</v>
+        <v>-19.95789607346347</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5579181071364068</v>
+        <v>-0.5408064673222708</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.245921804822991</v>
+        <v>-2.260585184005724</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-5.137337569328063</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.48635060201302</v>
+        <v>-19.42671516256896</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2840664085960226</v>
+        <v>-0.2638388007055558</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.115195160948355</v>
+        <v>-2.105847256719363</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-4.809346292043265</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.93026813111355</v>
+        <v>-18.86948056901941</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.03726340772664447</v>
+        <v>-0.006051357751969523</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.105493764542637</v>
+        <v>-2.079963774001271</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-4.461246392367108</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.04327770588945</v>
+        <v>-17.96926691792517</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.04435943586686</v>
+        <v>-0.01524215434686122</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.006817078024547</v>
+        <v>-1.970433568427391</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-4.103334359547021</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.70310040115288</v>
+        <v>-17.63234959659619</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0126444507060153</v>
+        <v>0.03312081235047487</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.220339445070258</v>
+        <v>-2.174909154209468</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-3.745425341297787</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.19449062035751</v>
+        <v>-17.12370053889229</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.02313681296042204</v>
+        <v>0.00226225455252653</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.267772858265831</v>
+        <v>-2.218166122798531</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-3.392560701358504</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.82031260514097</v>
+        <v>-16.74814783187738</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.007805726332760816</v>
+        <v>0.01900730988709417</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.233457932517667</v>
+        <v>-2.163401020011591</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-3.050444933964394</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.15717437390471</v>
+        <v>-16.08017854089252</v>
       </c>
       <c r="F47" t="n">
-        <v>0.01451665001238213</v>
+        <v>0.02830284490471968</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.532486129422691</v>
+        <v>-2.454181066126327</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-2.725627629801667</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.49270072777859</v>
+        <v>-15.42769744416941</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.01179887869948727</v>
+        <v>-0.00233314374491932</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.473426751303665</v>
+        <v>-2.388889751854639</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-2.419076363790208</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.97098555183864</v>
+        <v>-14.89379333428383</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1275425004450033</v>
+        <v>0.1463430473257219</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.681738381818368</v>
+        <v>-2.574826636812833</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-2.132033043833761</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.27499873277248</v>
+        <v>-14.19635326960224</v>
       </c>
       <c r="F50" t="n">
-        <v>0.274333399906436</v>
+        <v>0.2939587618661833</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.629879770262291</v>
+        <v>-2.490918067900211</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-1.867839838829186</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.49604599059831</v>
+        <v>-13.4311867223204</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2712828933443138</v>
+        <v>0.2879363025589893</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.720831998103762</v>
+        <v>-2.56130228797733</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-1.624660348220637</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.90172090309815</v>
+        <v>-12.84322449400132</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3500985564515047</v>
+        <v>0.3718710560772951</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.735744131040488</v>
+        <v>-2.572352191575746</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-1.40122516733005</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.2351655808202</v>
+        <v>-12.18786309065304</v>
       </c>
       <c r="F53" t="n">
-        <v>0.3993910766506034</v>
+        <v>0.419959084414955</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.76564695073099</v>
+        <v>-2.593915214356069</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-1.199693882543941</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.87875382055989</v>
+        <v>-11.8154394440173</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2840740732206801</v>
+        <v>0.3098528175160388</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.878659708860769</v>
+        <v>-2.699766482831425</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-1.01794212391895</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.41362357750189</v>
+        <v>-11.35857044405243</v>
       </c>
       <c r="F55" t="n">
-        <v>0.03958840995428755</v>
+        <v>0.06150492491133699</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.35713100851449</v>
+        <v>-3.165826279391189</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.8540497775475928</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.97757133905536</v>
+        <v>-10.91453190087245</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1208392413900395</v>
+        <v>0.1514490454339951</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.428745905058732</v>
+        <v>-3.234443038584676</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.7095385895262351</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.21671215940845</v>
+        <v>-10.15760041207805</v>
       </c>
       <c r="F57" t="n">
-        <v>0.05722374188209257</v>
+        <v>0.0867730693958683</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.783992450366127</v>
+        <v>-3.598134119224984</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.5816736268183845</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.908480073605689</v>
+        <v>-9.853440032459073</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.1059063515258142</v>
+        <v>-0.08434332874549141</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.825914004065334</v>
+        <v>-3.634111767434047</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.4665951145265981</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.371027949649992</v>
+        <v>-9.311811463896866</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.02892361081646496</v>
+        <v>0.003623854048066041</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.099202733583524</v>
+        <v>-3.916931693421014</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3627539096259066</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.009588745098462</v>
+        <v>-8.948500060038967</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.1670081288881498</v>
+        <v>-0.133832233487216</v>
       </c>
       <c r="G60" t="n">
-        <v>-4.011484304543959</v>
+        <v>-3.829239448987133</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2651609252458241</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.46587850038442</v>
+        <v>-8.418877133182622</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.1801789855469262</v>
+        <v>-0.1563640866778265</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.40955577244664</v>
+        <v>-4.229994838972368</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1678581410645709</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.969824238014261</v>
+        <v>-7.909638921850846</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.1270766052208853</v>
+        <v>-0.09904598483674978</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.377401076667361</v>
+        <v>-4.189958576882369</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.0686496292449989</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.494508183345395</v>
+        <v>-7.426611500808204</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.1791970628337968</v>
+        <v>-0.1568485018829704</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.375581246572361</v>
+        <v>-4.191699853160319</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.03569700697693688</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.118588891850915</v>
+        <v>-7.070605601935989</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.3331887288581788</v>
+        <v>-0.3135764592012731</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.624753954256092</v>
+        <v>-4.442770944756099</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.1483536123261975</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.756809287425499</v>
+        <v>-6.698391432145717</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.2841056855045477</v>
+        <v>-0.2607490172349085</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.906500311410037</v>
+        <v>-4.727240500901123</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.2689154299151778</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.512664024032991</v>
+        <v>-6.451693169699072</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.3965947515206582</v>
+        <v>-0.3773097894347957</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.889755256075469</v>
+        <v>-4.719162550047779</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.3977802355679714</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.344244640277027</v>
+        <v>-6.286887261527425</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.4489901474932458</v>
+        <v>-0.4312108002341818</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.995737447579241</v>
+        <v>-4.833589276884465</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.5366990479362627</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.061712744952578</v>
+        <v>-6.009016226014631</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.4126328225017726</v>
+        <v>-0.4003129655277083</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.987410742971904</v>
+        <v>-4.830997000921803</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.6847212380774066</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.923837703726361</v>
+        <v>-5.875121244852298</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.6653273596499274</v>
+        <v>-0.6551022711305393</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.082146646334634</v>
+        <v>-4.931873194317302</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.8409195311484414</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.694486742545004</v>
+        <v>-5.636985348464143</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.6204469455084904</v>
+        <v>-0.6019082446846064</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.941692421448597</v>
+        <v>-4.798803028233999</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>1.006074265783168</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.56733429734616</v>
+        <v>-5.513341640426882</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.7128655112682347</v>
+        <v>-0.7016061308243503</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.909812664028993</v>
+        <v>-4.775145236998999</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>1.178429723502412</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.554097979173175</v>
+        <v>-5.493467524713141</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.7990521408753175</v>
+        <v>-0.792335789517512</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.79487533738148</v>
+        <v>-4.673116920953428</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>1.355666401853924</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.594644841074</v>
+        <v>-5.527324219861845</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.8563178735050273</v>
+        <v>-0.8528484132519699</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.609370498417063</v>
+        <v>-4.487743005017428</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>1.536902650550189</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.831222753423991</v>
+        <v>-5.76470076268518</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.7529541425696</v>
+        <v>-0.7452558684986651</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.511413888555269</v>
+        <v>-4.377099953702001</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>1.718310800297382</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.022069251947832</v>
+        <v>-5.965157011494848</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.070023532790522</v>
+        <v>-1.074082146671457</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.34955374852301</v>
+        <v>-4.212280953227512</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>1.894438580406872</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.551521978867234</v>
+        <v>-6.493915846363639</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.9809696888611011</v>
+        <v>-0.984517702931209</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.190429899784672</v>
+        <v>-4.048862829157088</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>2.061026209833556</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.0142563305052</v>
+        <v>-6.959046089421641</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.032684285085919</v>
+        <v>-1.041155005024516</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.107621084310754</v>
+        <v>-3.967598905418494</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>2.212170211549723</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.596025899580139</v>
+        <v>-7.534086214835933</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.120481267942534</v>
+        <v>-1.134503124286023</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.720704258429223</v>
+        <v>-3.567013715370201</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>2.341158154975642</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.023149187488611</v>
+        <v>-7.961117856624512</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.076517315000018</v>
+        <v>-1.097491184152463</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.523377069998728</v>
+        <v>-3.359016300123699</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>2.44266571628247</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.492691536604275</v>
+        <v>-8.433056097160213</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.264274030053212</v>
+        <v>-1.282158115735009</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.158285112954355</v>
+        <v>-2.991816482321808</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>2.511007834913074</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.435664648779595</v>
+        <v>-9.376029209335533</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.186492658870517</v>
+        <v>-1.205895451681955</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.14876700878842</v>
+        <v>-2.970227274935802</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>2.540304182200481</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.25356699190791</v>
+        <v>-10.20185239568309</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.273674303493571</v>
+        <v>-1.297476110059829</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.975149980804291</v>
+        <v>-2.795863985689694</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>2.524193346986965</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.08262397705737</v>
+        <v>-11.03426101036003</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.370491883008135</v>
+        <v>-1.404034362888637</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.603708256881681</v>
+        <v>-2.422353677918091</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>2.457175388691588</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.28512580846422</v>
+        <v>-12.24992060612282</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.454295713498024</v>
+        <v>-1.48104328820367</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.496272819762476</v>
+        <v>-2.317170116887664</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>2.335248251603496</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.16102705318138</v>
+        <v>-13.13602075475368</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.545012279888344</v>
+        <v>-1.578777328917155</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.161790666762059</v>
+        <v>-1.973209136629837</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>2.151241088134998</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.33483055675917</v>
+        <v>-14.32666095978594</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.737966639169702</v>
+        <v>-1.78558334460506</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.902680901221458</v>
+        <v>-1.728396165792401</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>1.900381279671089</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.42644058309661</v>
+        <v>-15.42857462845981</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.779534700692183</v>
+        <v>-1.826850283162181</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.496531482465432</v>
+        <v>-1.315203088107526</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>1.582438024123551</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.83348346179975</v>
+        <v>-16.84382638104471</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.799723031674124</v>
+        <v>-1.852013689223978</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.180430922654798</v>
+        <v>-1.008280232588942</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>1.190978689502681</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.49204257039529</v>
+        <v>-18.53355826270641</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.026678101435446</v>
+        <v>-2.078720005231307</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.9773693055796265</v>
+        <v>-0.7993794484463607</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.7235852568987891</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.10551178800393</v>
+        <v>-20.14814032605659</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.254955493783781</v>
+        <v>-2.301799753351477</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.675002571449963</v>
+        <v>-0.5073425412588189</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1862404059601912</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.92591794432889</v>
+        <v>-21.97521046452799</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.453879943160967</v>
+        <v>-2.510988568156576</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.8125372128022953</v>
+        <v>-0.667212651259136</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.4250133825347325</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.64108817041205</v>
+        <v>-23.69843245685881</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.558055396872581</v>
+        <v>-2.61576626779891</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.6390772924522666</v>
+        <v>-0.4902047168389995</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-1.108592411897328</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.70959346558772</v>
+        <v>-25.77531682585319</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.750891925428365</v>
+        <v>-2.793441909663974</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.6270847430492456</v>
+        <v>-0.4867483488887838</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-1.851203316977391</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.96986172048615</v>
+        <v>-28.04342737015381</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.617651559408119</v>
+        <v>-2.664731480426966</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.7699872285666856</v>
+        <v>-0.6233927136478788</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-2.650151106048189</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.24999099879548</v>
+        <v>-30.32436837123933</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.11599697477558</v>
+        <v>-3.155758298505902</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.128375926556095</v>
+        <v>-1.005465387477971</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-3.503692260344312</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.42591863878751</v>
+        <v>-32.50618754751014</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.175527675796908</v>
+        <v>-3.214686753596511</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.343037323949036</v>
+        <v>-1.226319444115048</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.384420507123566</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.65390127487824</v>
+        <v>-34.73210159975188</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.53454480432272</v>
+        <v>-3.591915275375164</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.567033533268127</v>
+        <v>-1.460632388073419</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-5.301215723542342</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.15731977815322</v>
+        <v>-37.2362925488945</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.779266129040264</v>
+        <v>-3.835523754351161</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.977241565905088</v>
+        <v>-1.887192706959696</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-6.217185806483713</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.67838670565882</v>
+        <v>-39.7689330721122</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.665821324916708</v>
+        <v>-3.726347040954007</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.448852498869745</v>
+        <v>-2.36545452976795</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-7.148138842789941</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.2616289793598</v>
+        <v>-42.33870336618904</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.858461468929865</v>
+        <v>-3.910699757268352</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.791713725688867</v>
+        <v>-2.726173657663186</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-8.018578630630989</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.53222706120035</v>
+        <v>-44.58650774878215</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.09174012096374</v>
+        <v>-4.151257729682227</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.385423474955461</v>
+        <v>-3.33247820226352</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-8.917732853645791</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.84724732658288</v>
+        <v>-46.89119818722255</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.229510423767223</v>
+        <v>-4.293898369142832</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.646601824345054</v>
+        <v>-3.604981393611207</v>
       </c>
     </row>
   </sheetData>
